--- a/Data/EC/NIT-9005059497.xlsx
+++ b/Data/EC/NIT-9005059497.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B43CE281-594C-4424-A948-29275C161778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92BD2D50-59B4-4E68-92E2-48158A54FD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9513A5AA-6BE4-4B73-8770-44E4B21EC92A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7E55434D-7425-4AAB-B66B-8059688C582B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="86">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,108 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73100310</t>
+  </si>
+  <si>
+    <t>ENRIQUE A TORRES MENDEZ</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>30777157</t>
+  </si>
+  <si>
+    <t>ISBELIA DEL SOCORRO CARDONA PUELLO</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>1100624120</t>
+  </si>
+  <si>
+    <t>JOSE ANDRES BUSTAMENTE CARRASCAL</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>73169144</t>
+  </si>
+  <si>
+    <t>OSCAR SAMUEL CANTILLO ROJAS</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>1235038107</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL HERRERA</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
     <t>1047489239</t>
   </si>
   <si>
@@ -74,178 +176,91 @@
     <t>1704</t>
   </si>
   <si>
-    <t>73100310</t>
-  </si>
-  <si>
-    <t>ENRIQUE A TORRES MENDEZ</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
     <t>1002999831</t>
   </si>
   <si>
     <t>MIRELLA DEL CARMEN CONDE PEREZ</t>
   </si>
   <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
     <t>2108</t>
   </si>
   <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>1235038107</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL HERRERA</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
+    <t>1050956536</t>
+  </si>
+  <si>
+    <t>JESUS ANTONIO BARRIOS ARIZA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
   </si>
   <si>
     <t>1020786545</t>
   </si>
   <si>
     <t>MARIA JOSE RIVERA OCHOA</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>73169144</t>
-  </si>
-  <si>
-    <t>OSCAR SAMUEL CANTILLO ROJAS</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>1050956536</t>
-  </si>
-  <si>
-    <t>JESUS ANTONIO BARRIOS ARIZA</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -659,7 +674,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE1EDF8-E4F1-4516-B497-26DC49560777}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636C6ADB-9CDD-9564-CC88-7D27678AE4AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,8 +1025,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D63207B-F56E-46CA-8775-757CD04FAC30}">
-  <dimension ref="B2:J78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2F6043-C9E4-4A3F-8080-BD8D9D93FDD3}">
+  <dimension ref="B2:J84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1022,7 +1037,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1035,7 +1050,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1080,7 +1095,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1112,12 +1127,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2369309</v>
+        <v>2624768</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1128,17 +1143,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F13" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1165,13 +1180,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1188,10 +1203,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1211,10 +1226,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1234,10 +1249,10 @@
         <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1257,10 +1272,10 @@
         <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>56940</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1271,19 +1286,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1294,19 +1309,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1317,19 +1332,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1340,19 +1355,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1363,19 +1378,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F24" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1386,19 +1401,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F25" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1409,19 +1424,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1432,19 +1447,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1455,19 +1470,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1478,19 +1493,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1501,19 +1516,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
       </c>
       <c r="G30" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1524,19 +1539,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1547,19 +1562,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
       </c>
       <c r="G32" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1570,19 +1585,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1593,19 +1608,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
       </c>
       <c r="G34" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1616,19 +1631,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1639,19 +1654,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F36" s="18">
-        <v>1547</v>
+        <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1662,19 +1677,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1685,19 +1700,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
       </c>
       <c r="G38" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1708,19 +1723,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F39" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1731,19 +1746,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F40" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G40" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1754,19 +1769,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G41" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1783,13 +1798,13 @@
         <v>44</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F42" s="18">
-        <v>46400</v>
+        <v>29509</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1800,19 +1815,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F43" s="18">
-        <v>46400</v>
+        <v>1898</v>
       </c>
       <c r="G43" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1823,19 +1838,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F44" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G44" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1846,19 +1861,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F45" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G45" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1869,19 +1884,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G46" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1892,19 +1907,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G47" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1915,19 +1930,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F48" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G48" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1938,19 +1953,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F49" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G49" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1961,19 +1976,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F50" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G50" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1984,13 +1999,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -2007,19 +2022,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F52" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G52" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2030,13 +2045,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -2053,13 +2068,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -2076,13 +2091,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2099,13 +2114,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F56" s="18">
         <v>46400</v>
@@ -2122,13 +2137,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2145,13 +2160,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F58" s="18">
         <v>46400</v>
@@ -2168,13 +2183,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2191,13 +2206,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
@@ -2214,13 +2229,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F61" s="18">
         <v>46400</v>
@@ -2237,13 +2252,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F62" s="18">
         <v>46400</v>
@@ -2260,13 +2275,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F63" s="18">
         <v>46400</v>
@@ -2283,13 +2298,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F64" s="18">
         <v>46400</v>
@@ -2306,13 +2321,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F65" s="18">
         <v>46400</v>
@@ -2329,13 +2344,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F66" s="18">
         <v>46400</v>
@@ -2352,13 +2367,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2375,13 +2390,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2398,13 +2413,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
@@ -2421,13 +2436,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F70" s="18">
         <v>46400</v>
@@ -2444,13 +2459,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F71" s="18">
         <v>46400</v>
@@ -2463,56 +2478,194 @@
       <c r="J71" s="20"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F72" s="24">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="18">
         <v>46400</v>
       </c>
-      <c r="G72" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="26"/>
+      <c r="G72" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" s="32"/>
-      <c r="H77" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="B77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G77" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="32"/>
-      <c r="H78" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="B78" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" s="24">
+        <v>1547</v>
+      </c>
+      <c r="G78" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="32"/>
+      <c r="H83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="H84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H83:J83"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9005059497.xlsx
+++ b/Data/EC/NIT-9005059497.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92BD2D50-59B4-4E68-92E2-48158A54FD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91668DC2-7654-4820-9774-D3EBBA428A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7E55434D-7425-4AAB-B66B-8059688C582B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6291309A-A925-4EFF-B3FF-04DD062868CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="83">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047489239</t>
+  </si>
+  <si>
+    <t>MARIA TERESA RUIZ NAVARRO</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
     <t>73100310</t>
   </si>
   <si>
@@ -74,193 +83,175 @@
     <t>1909</t>
   </si>
   <si>
-    <t>30777157</t>
-  </si>
-  <si>
-    <t>ISBELIA DEL SOCORRO CARDONA PUELLO</t>
+    <t>1002999831</t>
+  </si>
+  <si>
+    <t>MIRELLA DEL CARMEN CONDE PEREZ</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>1235038107</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL HERRERA</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2204</t>
   </si>
   <si>
     <t>2205</t>
   </si>
   <si>
-    <t>1100624120</t>
-  </si>
-  <si>
-    <t>JOSE ANDRES BUSTAMENTE CARRASCAL</t>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>1020786545</t>
+  </si>
+  <si>
+    <t>MARIA JOSE RIVERA OCHOA</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>73169144</t>
+  </si>
+  <si>
+    <t>OSCAR SAMUEL CANTILLO ROJAS</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>1050956536</t>
+  </si>
+  <si>
+    <t>JESUS ANTONIO BARRIOS ARIZA</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
   </si>
   <si>
     <t>2502</t>
   </si>
   <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>73169144</t>
-  </si>
-  <si>
-    <t>OSCAR SAMUEL CANTILLO ROJAS</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>1235038107</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL HERRERA</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>1047489239</t>
-  </si>
-  <si>
-    <t>MARIA TERESA RUIZ NAVARRO</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1002999831</t>
-  </si>
-  <si>
-    <t>MIRELLA DEL CARMEN CONDE PEREZ</t>
-  </si>
-  <si>
     <t>2503</t>
   </si>
   <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>1050956536</t>
-  </si>
-  <si>
-    <t>JESUS ANTONIO BARRIOS ARIZA</t>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>1020786545</t>
-  </si>
-  <si>
-    <t>MARIA JOSE RIVERA OCHOA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -359,7 +350,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -372,9 +365,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -574,23 +565,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,10 +609,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -674,7 +665,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636C6ADB-9CDD-9564-CC88-7D27678AE4AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D8BF6A-B33D-9E5F-9581-1602AA653A23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,8 +1016,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2F6043-C9E4-4A3F-8080-BD8D9D93FDD3}">
-  <dimension ref="B2:J84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C91329-CC82-4DD8-8D68-D15587BF4B59}">
+  <dimension ref="B2:J80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1037,7 +1028,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1050,7 +1041,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1095,7 +1086,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1127,12 +1118,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2624768</v>
+        <v>2462109</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1143,17 +1134,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F13" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1180,13 +1171,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1203,10 +1194,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1226,10 +1217,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1249,7 +1240,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
         <v>1423500</v>
@@ -1272,7 +1263,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>56940</v>
+        <v>36341</v>
       </c>
       <c r="G19" s="18">
         <v>1423500</v>
@@ -1286,19 +1277,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F20" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>1200000</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1309,19 +1300,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1332,19 +1323,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1355,19 +1346,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1378,19 +1369,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1401,19 +1392,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1424,19 +1415,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1447,19 +1438,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1470,19 +1461,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1493,19 +1484,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1516,19 +1507,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
       </c>
       <c r="G30" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1539,19 +1530,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1562,19 +1553,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1585,19 +1576,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1608,19 +1599,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
       </c>
       <c r="G34" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1631,19 +1622,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1654,19 +1645,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F36" s="18">
-        <v>40000</v>
+        <v>1547</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1677,19 +1668,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1700,19 +1691,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
       </c>
       <c r="G38" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1723,19 +1714,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F39" s="18">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G39" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1746,19 +1737,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F40" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1769,19 +1760,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F41" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1798,13 +1789,13 @@
         <v>44</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F42" s="18">
-        <v>29509</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1815,19 +1806,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F43" s="18">
-        <v>1898</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1838,19 +1829,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F44" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1861,19 +1852,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="F45" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G45" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1884,19 +1875,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F46" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1907,19 +1898,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F47" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G47" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1930,19 +1921,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D48" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="F48" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1953,19 +1944,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F49" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G49" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1976,19 +1967,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G50" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1999,19 +1990,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F51" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G51" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2022,13 +2013,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
@@ -2045,13 +2036,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -2068,13 +2059,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -2091,13 +2082,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2114,13 +2105,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F56" s="18">
         <v>46400</v>
@@ -2137,13 +2128,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D57" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2160,13 +2151,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F58" s="18">
         <v>46400</v>
@@ -2183,13 +2174,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2206,13 +2197,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
@@ -2229,13 +2220,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
         <v>46400</v>
@@ -2252,13 +2243,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F62" s="18">
         <v>46400</v>
@@ -2275,13 +2266,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F63" s="18">
         <v>46400</v>
@@ -2298,13 +2289,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F64" s="18">
         <v>46400</v>
@@ -2321,13 +2312,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F65" s="18">
         <v>46400</v>
@@ -2344,13 +2335,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F66" s="18">
         <v>46400</v>
@@ -2367,13 +2358,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2390,13 +2381,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2413,13 +2404,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
@@ -2436,13 +2427,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F70" s="18">
         <v>46400</v>
@@ -2459,13 +2450,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F71" s="18">
         <v>46400</v>
@@ -2482,13 +2473,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F72" s="18">
         <v>46400</v>
@@ -2505,13 +2496,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F73" s="18">
         <v>46400</v>
@@ -2524,148 +2515,56 @@
       <c r="J73" s="20"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F75" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F76" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F77" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F78" s="24">
-        <v>1547</v>
-      </c>
-      <c r="G78" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="32"/>
-      <c r="H83" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" s="32"/>
-      <c r="H84" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="B74" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F74" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G74" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="26"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="32"/>
+      <c r="H79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="32"/>
+      <c r="H80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H79:J79"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9005059497.xlsx
+++ b/Data/EC/NIT-9005059497.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91668DC2-7654-4820-9774-D3EBBA428A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA0749D-C1B0-4188-8BC0-FEC6A66AB4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6291309A-A925-4EFF-B3FF-04DD062868CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A66C01C5-D86C-42D1-A133-AC25452B8A31}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="84">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -350,159 +353,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -520,7 +373,142 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,7 +520,7 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -550,6 +538,21 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -559,29 +562,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,19 +603,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,7 +674,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D8BF6A-B33D-9E5F-9581-1602AA653A23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD5C0C03-9339-3451-D4E1-ED3E61FF8068}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,8 +1025,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C91329-CC82-4DD8-8D68-D15587BF4B59}">
-  <dimension ref="B2:J80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1E7EF3-8EF1-4528-B510-0ABA998F9DF9}">
+  <dimension ref="B2:J81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1039,57 +1048,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9005059497</v>
       </c>
@@ -1118,12 +1127,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>2462109</v>
+        <v>2508509</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1134,17 +1143,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1171,13 +1180,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1190,18 +1199,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>29509</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>737717</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1213,18 +1222,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>33125</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>877803</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1236,18 +1245,18 @@
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>36341</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1423500</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1259,18 +1268,18 @@
       <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>36341</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1423500</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1282,18 +1291,18 @@
       <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>36341</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1423500</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1305,18 +1314,18 @@
       <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>36341</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1300000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1328,18 +1337,18 @@
       <c r="D22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>36341</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1423500</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1351,18 +1360,18 @@
       <c r="D23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>36341</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1300000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1374,18 +1383,18 @@
       <c r="D24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>36341</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1423500</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1397,18 +1406,18 @@
       <c r="D25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>36341</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1423500</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1420,18 +1429,18 @@
       <c r="D26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>40000</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1300000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1443,18 +1452,18 @@
       <c r="D27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>40000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1300000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1466,18 +1475,18 @@
       <c r="D28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>40000</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1300000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1489,18 +1498,18 @@
       <c r="D29" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>40000</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1300000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1512,18 +1521,18 @@
       <c r="D30" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>40000</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>1300000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1535,18 +1544,18 @@
       <c r="D31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>40000</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>1300000</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1558,18 +1567,18 @@
       <c r="D32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>40000</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>1300000</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1581,18 +1590,18 @@
       <c r="D33" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>40000</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>1300000</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1604,18 +1613,18 @@
       <c r="D34" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>40000</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>1300000</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1627,18 +1636,18 @@
       <c r="D35" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>40000</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>1300000</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1650,18 +1659,18 @@
       <c r="D36" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>1547</v>
       </c>
-      <c r="G36" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="G36" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1673,18 +1682,18 @@
       <c r="D37" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>40000</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>1300000</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1696,18 +1705,18 @@
       <c r="D38" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>40000</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="19">
         <v>1300000</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1719,18 +1728,18 @@
       <c r="D39" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>48000</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="19">
         <v>1200000</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1742,18 +1751,18 @@
       <c r="D40" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>40000</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>1300000</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1765,18 +1774,18 @@
       <c r="D41" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>40000</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="19">
         <v>1300000</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1788,18 +1797,18 @@
       <c r="D42" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G42" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1811,18 +1820,18 @@
       <c r="D43" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>40000</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>1300000</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1834,18 +1843,18 @@
       <c r="D44" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1857,18 +1866,18 @@
       <c r="D45" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>40000</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="19">
         <v>1300000</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1880,18 +1889,18 @@
       <c r="D46" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1903,18 +1912,18 @@
       <c r="D47" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>40000</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="19">
         <v>1300000</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1926,18 +1935,18 @@
       <c r="D48" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1949,18 +1958,18 @@
       <c r="D49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>40000</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="19">
         <v>1300000</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1972,18 +1981,18 @@
       <c r="D50" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1995,18 +2004,18 @@
       <c r="D51" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>40000</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="19">
         <v>1300000</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2018,18 +2027,18 @@
       <c r="D52" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2041,18 +2050,18 @@
       <c r="D53" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2064,18 +2073,18 @@
       <c r="D54" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F54" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G54" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2087,18 +2096,18 @@
       <c r="D55" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G55" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2110,18 +2119,18 @@
       <c r="D56" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F56" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G56" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2133,18 +2142,18 @@
       <c r="D57" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G57" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2156,18 +2165,18 @@
       <c r="D58" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G58" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2179,18 +2188,18 @@
       <c r="D59" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G59" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2202,18 +2211,18 @@
       <c r="D60" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F60" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2225,18 +2234,18 @@
       <c r="D61" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F61" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G61" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2248,18 +2257,18 @@
       <c r="D62" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F62" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G62" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2271,18 +2280,18 @@
       <c r="D63" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F63" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G63" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G63" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2294,18 +2303,18 @@
       <c r="D64" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G64" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2317,18 +2326,18 @@
       <c r="D65" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F65" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G65" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2340,18 +2349,18 @@
       <c r="D66" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F66" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G66" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2363,18 +2372,18 @@
       <c r="D67" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F67" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G67" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2386,18 +2395,18 @@
       <c r="D68" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F68" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G68" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2409,18 +2418,18 @@
       <c r="D69" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F69" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G69" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2432,18 +2441,18 @@
       <c r="D70" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F70" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G70" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2455,18 +2464,18 @@
       <c r="D71" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F71" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G71" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2478,18 +2487,18 @@
       <c r="D72" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F72" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G72" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2501,70 +2510,93 @@
       <c r="D73" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F73" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G73" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G73" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E74" s="22" t="s">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F74" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G74" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="26"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" s="32"/>
-      <c r="H79" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="F74" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G74" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="26">
+        <v>46400</v>
+      </c>
+      <c r="G75" s="26">
+        <v>1160000</v>
+      </c>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="28"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" s="32"/>
+      <c r="B80" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="34"/>
       <c r="H80" s="1" t="s">
         <v>82</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="34"/>
+      <c r="H81" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B81:C81"/>
     <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="H81:J81"/>
     <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H79:J79"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
